--- a/demo/回测分析.xlsx
+++ b/demo/回测分析.xlsx
@@ -985,14 +985,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1205,16 +1205,16 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0.1328</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>1.5620000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0.11348999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1435,17 +1435,17 @@
       <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.86328125" customWidth="1"/>
-    <col min="14" max="15" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="14" max="15" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0.17055999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0.17829999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>7.4880000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>7.5130000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1655,32 +1655,32 @@
         <v>0.11348999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M20" t="s">
         <v>81</v>
       </c>
@@ -1702,12 +1702,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>48</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1831,18 +1831,18 @@
       <selection activeCell="A33" sqref="A33:K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="28.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="28.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.1832</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7.17E-2</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>-5.8999999999999997E-2</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.41299999999999998</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.26600000000000001</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.34699999999999998</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.7470000000000001</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>1.5740000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.17829999999999999</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0.1492</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>1.5740000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -3135,19 +3135,20 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>0.17829999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>0.17463000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>0.16270999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>0.15597</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>0.11348999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>0.1013</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>0.16206000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>0.11951000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>0.10384</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>0.1492</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3567,22 +3568,22 @@
         <v>7.5130000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -3598,17 +3599,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
